--- a/data/f1120s_spreadsheet.xlsx
+++ b/data/f1120s_spreadsheet.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D47D3E-1C74-4962-93DE-31D7DFF648CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF3D0E-B208-44C4-B820-02C746718329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="0" windowWidth="20850" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36060" yWindow="1590" windowWidth="20850" windowHeight="11745" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot" sheetId="2" r:id="rId2"/>
     <sheet name="Edited" sheetId="3" r:id="rId3"/>
+    <sheet name="Other Deductions" sheetId="4" r:id="rId4"/>
+    <sheet name="Clean Other Ded" sheetId="6" r:id="rId5"/>
+    <sheet name="Total Deductions" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="113">
   <si>
     <t>Bank Fees</t>
   </si>
@@ -290,13 +293,103 @@
   </si>
   <si>
     <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>Base Salary</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Social Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Employer Pension</t>
+  </si>
+  <si>
+    <t>Employee Contrib</t>
+  </si>
+  <si>
+    <t>Maintenance equipment</t>
+  </si>
+  <si>
+    <t>Line 9. Repairs and Maintenance</t>
+  </si>
+  <si>
+    <t>Line 18 Employee Benefit Program</t>
+  </si>
+  <si>
+    <t>Line 11 Rent</t>
+  </si>
+  <si>
+    <t>Line 12 Taxes and Licenses</t>
+  </si>
+  <si>
+    <t>Line 16 Advertising</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>Line 8</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Line9</t>
+  </si>
+  <si>
+    <t>Salaries and Wages</t>
+  </si>
+  <si>
+    <t>Repairs and Maint</t>
+  </si>
+  <si>
+    <t>Rents</t>
+  </si>
+  <si>
+    <t>Line11</t>
+  </si>
+  <si>
+    <t>Taxes and Licenses</t>
+  </si>
+  <si>
+    <t>Line12</t>
+  </si>
+  <si>
+    <t>Line16</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Line17</t>
+  </si>
+  <si>
+    <t>Employee benefit programs</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>DBNOSTIX 20-8194443   For Tax Year 2023</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +401,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -348,14 +448,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,7 +1048,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E776A561-720A-456E-B643-1EEFD0CE915C}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E776A561-720A-456E-B643-1EEFD0CE915C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2617,7 +2720,7 @@
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>70.97</v>
       </c>
     </row>
@@ -2625,7 +2728,7 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>226.04000000000002</v>
       </c>
     </row>
@@ -2633,7 +2736,7 @@
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>139</v>
       </c>
     </row>
@@ -2641,7 +2744,7 @@
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>2422.0899999999992</v>
       </c>
     </row>
@@ -2649,7 +2752,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>19795.740000000002</v>
       </c>
     </row>
@@ -2657,7 +2760,7 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>25809.629999999997</v>
       </c>
     </row>
@@ -2665,7 +2768,7 @@
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>2422.0899999999992</v>
       </c>
     </row>
@@ -2673,7 +2776,7 @@
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>39.869999999999997</v>
       </c>
     </row>
@@ -2681,7 +2784,7 @@
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>15</v>
       </c>
     </row>
@@ -2689,7 +2792,7 @@
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>902.21</v>
       </c>
     </row>
@@ -2697,7 +2800,7 @@
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>26.930000000000007</v>
       </c>
     </row>
@@ -2705,7 +2808,7 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>1187.78</v>
       </c>
     </row>
@@ -2713,7 +2816,7 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>142.85</v>
       </c>
     </row>
@@ -2721,7 +2824,7 @@
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>95</v>
       </c>
     </row>
@@ -2729,7 +2832,7 @@
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>14.36</v>
       </c>
     </row>
@@ -2737,7 +2840,7 @@
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>178.88</v>
       </c>
     </row>
@@ -2745,7 +2848,7 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1715.62</v>
       </c>
     </row>
@@ -2753,7 +2856,7 @@
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>53.53</v>
       </c>
     </row>
@@ -2761,7 +2864,7 @@
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>2238.44</v>
       </c>
     </row>
@@ -2769,7 +2872,7 @@
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>75</v>
       </c>
     </row>
@@ -2777,7 +2880,7 @@
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>166.16</v>
       </c>
     </row>
@@ -2785,7 +2888,7 @@
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>56.12</v>
       </c>
     </row>
@@ -2793,7 +2896,7 @@
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>5027.9399999999987</v>
       </c>
     </row>
@@ -2801,7 +2904,7 @@
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>1185.2</v>
       </c>
     </row>
@@ -2809,7 +2912,7 @@
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>214.61</v>
       </c>
     </row>
@@ -2817,7 +2920,7 @@
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>3.86</v>
       </c>
     </row>
@@ -2825,7 +2928,7 @@
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>208570.05</v>
       </c>
     </row>
@@ -2833,7 +2936,7 @@
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>3942.45</v>
       </c>
     </row>
@@ -2841,7 +2944,7 @@
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>1571.87</v>
       </c>
     </row>
@@ -2849,7 +2952,7 @@
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>80.92</v>
       </c>
     </row>
@@ -2857,7 +2960,7 @@
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>5069.97</v>
       </c>
     </row>
@@ -2865,7 +2968,7 @@
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>6865.7599999999984</v>
       </c>
     </row>
@@ -2873,7 +2976,7 @@
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>204.97</v>
       </c>
     </row>
@@ -2881,7 +2984,7 @@
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>418.31</v>
       </c>
     </row>
@@ -2889,7 +2992,7 @@
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>5.99</v>
       </c>
     </row>
@@ -2897,7 +3000,7 @@
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>500</v>
       </c>
     </row>
@@ -2905,7 +3008,7 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>448.90999999999997</v>
       </c>
     </row>
@@ -2913,7 +3016,7 @@
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>543.25</v>
       </c>
     </row>
@@ -2921,7 +3024,7 @@
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>105.25</v>
       </c>
     </row>
@@ -2929,7 +3032,7 @@
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>96</v>
       </c>
     </row>
@@ -2937,7 +3040,7 @@
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>11500</v>
       </c>
     </row>
@@ -2945,7 +3048,7 @@
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>0</v>
       </c>
     </row>
@@ -2953,7 +3056,7 @@
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>126860</v>
       </c>
     </row>
@@ -2961,7 +3064,7 @@
       <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>391.71</v>
       </c>
     </row>
@@ -2969,7 +3072,7 @@
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>1700</v>
       </c>
     </row>
@@ -2977,7 +3080,7 @@
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>3008.33</v>
       </c>
     </row>
@@ -2985,7 +3088,7 @@
       <c r="A50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>31.99</v>
       </c>
     </row>
@@ -2993,7 +3096,7 @@
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>5500</v>
       </c>
     </row>
@@ -3001,7 +3104,7 @@
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>4617.6900000000005</v>
       </c>
     </row>
@@ -3009,7 +3112,7 @@
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>1000</v>
       </c>
     </row>
@@ -3017,7 +3120,7 @@
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>7014.8399999999974</v>
       </c>
     </row>
@@ -3025,7 +3128,7 @@
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>268.91000000000003</v>
       </c>
     </row>
@@ -3033,7 +3136,7 @@
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>79</v>
       </c>
     </row>
@@ -3041,7 +3144,7 @@
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>215.80000000000007</v>
       </c>
     </row>
@@ -3049,7 +3152,7 @@
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>33030</v>
       </c>
     </row>
@@ -3057,7 +3160,7 @@
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>5220.75</v>
       </c>
     </row>
@@ -3065,7 +3168,7 @@
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>1455.24</v>
       </c>
     </row>
@@ -3073,7 +3176,7 @@
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>223.74</v>
       </c>
     </row>
@@ -3081,7 +3184,7 @@
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>13.53</v>
       </c>
     </row>
@@ -3089,7 +3192,7 @@
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>458.64</v>
       </c>
     </row>
@@ -3097,7 +3200,7 @@
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>200</v>
       </c>
     </row>
@@ -3105,7 +3208,7 @@
       <c r="A65" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>116.21000000000001</v>
       </c>
     </row>
@@ -3113,7 +3216,7 @@
       <c r="A66" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>387.9</v>
       </c>
     </row>
@@ -3121,7 +3224,7 @@
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>657.2</v>
       </c>
     </row>
@@ -3129,7 +3232,7 @@
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>29.24</v>
       </c>
     </row>
@@ -3137,7 +3240,7 @@
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>6190.2000000000007</v>
       </c>
     </row>
@@ -3145,7 +3248,7 @@
       <c r="A70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>148.4</v>
       </c>
     </row>
@@ -3153,7 +3256,7 @@
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>1550</v>
       </c>
     </row>
@@ -3161,7 +3264,7 @@
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>4000</v>
       </c>
     </row>
@@ -3169,7 +3272,7 @@
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>1113.5</v>
       </c>
     </row>
@@ -3177,7 +3280,7 @@
       <c r="A74" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>1063.76</v>
       </c>
     </row>
@@ -3185,7 +3288,7 @@
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>510695.2</v>
       </c>
     </row>
@@ -3196,22 +3299,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF6DCD1-04BD-486E-B447-17C53BE66445}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3219,7 +3325,7 @@
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>70.97</v>
       </c>
     </row>
@@ -3227,7 +3333,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>226.04000000000002</v>
       </c>
     </row>
@@ -3235,7 +3341,7 @@
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>139</v>
       </c>
     </row>
@@ -3243,23 +3349,15 @@
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>39.869999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>902.21</v>
       </c>
     </row>
@@ -3267,7 +3365,7 @@
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>26.930000000000007</v>
       </c>
     </row>
@@ -3275,7 +3373,7 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1187.78</v>
       </c>
     </row>
@@ -3283,7 +3381,7 @@
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>142.85</v>
       </c>
     </row>
@@ -3291,7 +3389,7 @@
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>95</v>
       </c>
     </row>
@@ -3299,7 +3397,7 @@
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>14.36</v>
       </c>
     </row>
@@ -3307,7 +3405,7 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>178.88</v>
       </c>
     </row>
@@ -3315,7 +3413,7 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1715.62</v>
       </c>
     </row>
@@ -3323,7 +3421,7 @@
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>53.53</v>
       </c>
     </row>
@@ -3331,7 +3429,7 @@
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>2238.44</v>
       </c>
     </row>
@@ -3339,23 +3437,15 @@
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3">
-        <v>166.16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>56.12</v>
       </c>
     </row>
@@ -3363,31 +3453,22 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3">
-        <v>5027.9399999999987</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3">
-        <v>1185.2</v>
-      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3">
-        <v>214.61</v>
-      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>3942.45</v>
       </c>
     </row>
@@ -3395,7 +3476,7 @@
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>1571.87</v>
       </c>
     </row>
@@ -3403,7 +3484,7 @@
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>80.92</v>
       </c>
     </row>
@@ -3411,7 +3492,7 @@
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>5069.97</v>
       </c>
     </row>
@@ -3419,7 +3500,7 @@
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>6865.7599999999984</v>
       </c>
     </row>
@@ -3427,7 +3508,7 @@
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>204.97</v>
       </c>
     </row>
@@ -3435,7 +3516,7 @@
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>418.31</v>
       </c>
     </row>
@@ -3443,7 +3524,7 @@
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>5.99</v>
       </c>
     </row>
@@ -3451,7 +3532,7 @@
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>500</v>
       </c>
     </row>
@@ -3459,159 +3540,136 @@
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>448.90999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>543.25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>105.25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="3">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="3">
-        <v>126860</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="4">
+        <f>'Total Deductions'!C28+'Total Deductions'!D28+'Total Deductions'!E28</f>
+        <v>136562.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>391.71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>1700</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>3008.33</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>31.99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="3">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>4617.6900000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>7014.8399999999974</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>268.91000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>215.80000000000007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="3">
-        <v>33030</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="3">
-        <v>5220.75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>1455.24</v>
       </c>
     </row>
@@ -3619,7 +3677,7 @@
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>223.74</v>
       </c>
     </row>
@@ -3627,7 +3685,7 @@
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>13.53</v>
       </c>
     </row>
@@ -3635,7 +3693,7 @@
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>458.64</v>
       </c>
     </row>
@@ -3643,7 +3701,7 @@
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>200</v>
       </c>
     </row>
@@ -3651,7 +3709,7 @@
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>116.21000000000001</v>
       </c>
     </row>
@@ -3659,7 +3717,7 @@
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>387.9</v>
       </c>
     </row>
@@ -3667,7 +3725,7 @@
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>657.2</v>
       </c>
     </row>
@@ -3675,7 +3733,7 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>29.24</v>
       </c>
     </row>
@@ -3683,7 +3741,7 @@
       <c r="A60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>148.4</v>
       </c>
     </row>
@@ -3691,7 +3749,7 @@
       <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>1550</v>
       </c>
     </row>
@@ -3699,23 +3757,15 @@
       <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>4000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1113.5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>1063.76</v>
       </c>
     </row>
@@ -3723,7 +3773,7 @@
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>3.86</v>
       </c>
     </row>
@@ -3731,8 +3781,1191 @@
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>208570.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>SUM(B72:B73)</f>
+        <v>208573.90999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408E7EFD-7E3C-4E28-BD74-CFD376A9D367}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection sqref="A1:B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>70.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>226.04000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>39.869999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>902.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>26.930000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1187.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>142.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>178.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1715.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>53.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>2238.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>56.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>3942.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1571.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>5069.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>6865.7599999999984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>204.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>418.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>448.90999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>543.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>105.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>391.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>3008.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>4617.6900000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <v>7014.8399999999974</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>268.91000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>294.80000000000007</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>1455.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>223.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46">
+        <v>458.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>116.21000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>387.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>657.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>1063.76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>SUM(B5:B55)</f>
+        <v>23225.050000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460E72C3-FDC7-4C68-83E4-78C6FEF8C7F5}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>70.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>226.04000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>39.869999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>902.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>26.930000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1187.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>142.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>178.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>53.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>2238.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>3942.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>1571.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>204.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>418.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>448.90999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>543.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>105.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>391.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>268.91000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>294.80000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>1455.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <v>223.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>458.64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>116.21000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>387.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>657.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1063.76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47">
+        <f>SUM(B4:B45)</f>
+        <v>23225.050000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041A5E33-37AB-4733-AF5B-067BB33AFA41}">
+  <dimension ref="A1:F66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1">
+        <v>208573.91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <f>F28</f>
+        <v>136562.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <f>D51</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <f>D59</f>
+        <v>1279.6600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <f>D43</f>
+        <v>6427.7499999999982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10">
+        <f>'Other Deductions'!B56</f>
+        <v>23225.050000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <f>SUM(C2:C10)</f>
+        <v>203010.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C1-C11</f>
+        <v>5563.6600000000035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>126860</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1839.47</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7863.32</v>
+      </c>
+      <c r="F28" s="7">
+        <f>C28+D28+E28</f>
+        <v>136562.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="5">
+        <v>45162</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="5">
+        <v>44979</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="5">
+        <v>44979</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="4">
+        <f>SUM(D32:D34)</f>
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="6">
+        <f>D30</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <f>34000</f>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>5027.9399999999987</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>1185.2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>214.61</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="6">
+        <f>SUM(D40:D42)</f>
+        <v>6427.7499999999982</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>4617.6900000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>5069.97</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="6">
+        <f>D46+D47</f>
+        <v>9687.66</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>166.16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>1113.5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="6">
+        <f>SUM(D56:D58)</f>
+        <v>1279.6600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="6">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
